--- a/data/techcombank_atms.xlsx
+++ b/data/techcombank_atms.xlsx
@@ -14963,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="E429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
